--- a/Input_modifications_MQ_test.xlsx
+++ b/Input_modifications_MQ_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brune\deamidation\Modification Extent\Input_modifications_MQ_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brune\Desktop\proteomics-mod-analyzer\proteomics-mod-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470B56F9-C930-4572-9F06-D4CF88C69F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEBB69-F8F6-4C0E-A176-704317C58621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="0" windowWidth="22776" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_mod_MQ" sheetId="2" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Unimod_modification _description</t>
-  </si>
-  <si>
-    <t>Unimod # Accession</t>
   </si>
   <si>
     <t>target_modification</t>
@@ -446,23 +443,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43EB69B-F61A-4EE2-934D-080EDEEFFB59}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,178 +474,152 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>7</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
